--- a/resources/experiment 1/predictions/multiple/LinearRegression/average time/Nefropatías.xlsx
+++ b/resources/experiment 1/predictions/multiple/LinearRegression/average time/Nefropatías.xlsx
@@ -549,10 +549,10 @@
         <v>21.40233213924034</v>
       </c>
       <c r="D4" t="n">
-        <v>26.81791889334945</v>
+        <v>26.81791889334946</v>
       </c>
       <c r="E4" t="n">
-        <v>21.24973515125875</v>
+        <v>21.24973515125874</v>
       </c>
       <c r="F4" t="n">
         <v>32.29066254265016</v>
@@ -584,7 +584,7 @@
         <v>25.79697993523015</v>
       </c>
       <c r="F5" t="n">
-        <v>38.92037220997662</v>
+        <v>38.92037220997663</v>
       </c>
       <c r="G5" t="n">
         <v>32.1980353555767</v>
@@ -668,16 +668,16 @@
         <v>1.492445406115291</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9774607584875916</v>
+        <v>0.9774607584875898</v>
       </c>
       <c r="F8" t="n">
-        <v>2.481639226469337</v>
+        <v>2.481639226469333</v>
       </c>
       <c r="G8" t="n">
         <v>7.534856710700137</v>
       </c>
       <c r="H8" t="n">
-        <v>5.036298212680629</v>
+        <v>5.036298212680627</v>
       </c>
       <c r="I8" t="n">
         <v>10.5937926112375</v>
@@ -720,7 +720,7 @@
         <v>0.9333138105177685</v>
       </c>
       <c r="C10" t="n">
-        <v>5.120842126721815</v>
+        <v>5.120842126721817</v>
       </c>
       <c r="D10" t="n">
         <v>2.484880222251606</v>
@@ -729,13 +729,13 @@
         <v>1.856668108961435</v>
       </c>
       <c r="F10" t="n">
-        <v>3.673311475868733</v>
+        <v>3.673311475868729</v>
       </c>
       <c r="G10" t="n">
-        <v>8.630592836605739</v>
+        <v>8.630592836605741</v>
       </c>
       <c r="H10" t="n">
-        <v>6.045424594340524</v>
+        <v>6.045424594340522</v>
       </c>
       <c r="I10" t="n">
         <v>11.94663998691074</v>
@@ -813,7 +813,7 @@
         <v>8.97403132962623</v>
       </c>
       <c r="E13" t="n">
-        <v>7.119975936535994</v>
+        <v>7.119975936535995</v>
       </c>
       <c r="F13" t="n">
         <v>11.47633097161913</v>
@@ -842,7 +842,7 @@
         <v>11.62146849564084</v>
       </c>
       <c r="E14" t="n">
-        <v>9.192742975956552</v>
+        <v>9.19274297595655</v>
       </c>
       <c r="F14" t="n">
         <v>14.54938631172287</v>
@@ -877,7 +877,7 @@
         <v>41.28168180360487</v>
       </c>
       <c r="G15" t="n">
-        <v>34.28997740841108</v>
+        <v>34.28997740841107</v>
       </c>
       <c r="H15" t="n">
         <v>30.56434044863228</v>
@@ -952,7 +952,7 @@
         <v>15.13439344174483</v>
       </c>
       <c r="C18" t="n">
-        <v>21.40270887203777</v>
+        <v>21.40270887203778</v>
       </c>
       <c r="D18" t="n">
         <v>26.79231382871241</v>
@@ -961,7 +961,7 @@
         <v>21.18447742851047</v>
       </c>
       <c r="F18" t="n">
-        <v>32.28331757425997</v>
+        <v>32.28331757425998</v>
       </c>
       <c r="G18" t="n">
         <v>27.21211462531644</v>
@@ -1028,7 +1028,7 @@
         <v>25.83120495341767</v>
       </c>
       <c r="I20" t="n">
-        <v>33.94886844141962</v>
+        <v>33.94886844141963</v>
       </c>
     </row>
     <row r="21">
@@ -1057,7 +1057,7 @@
         <v>27.78853278749735</v>
       </c>
       <c r="I21" t="n">
-        <v>35.42963383486162</v>
+        <v>35.42963383486163</v>
       </c>
     </row>
     <row r="22">
@@ -1077,7 +1077,7 @@
         <v>2.670617736687005</v>
       </c>
       <c r="F22" t="n">
-        <v>4.857638756877943</v>
+        <v>4.85763875687794</v>
       </c>
       <c r="G22" t="n">
         <v>9.693152229519066</v>
@@ -1164,7 +1164,7 @@
         <v>19.17696811183819</v>
       </c>
       <c r="F25" t="n">
-        <v>29.21760720254642</v>
+        <v>29.21760720254643</v>
       </c>
       <c r="G25" t="n">
         <v>25.49681390627686</v>
@@ -1210,7 +1210,7 @@
         <v>7.766676696445527</v>
       </c>
       <c r="B27" t="n">
-        <v>4.970593608363615</v>
+        <v>4.970593608363614</v>
       </c>
       <c r="C27" t="n">
         <v>11.44211647530032</v>
@@ -1219,7 +1219,7 @@
         <v>10.85648070335067</v>
       </c>
       <c r="E27" t="n">
-        <v>8.617359746490582</v>
+        <v>8.617359746490585</v>
       </c>
       <c r="F27" t="n">
         <v>13.83029559685719</v>
@@ -1280,7 +1280,7 @@
         <v>28.79174755513932</v>
       </c>
       <c r="F29" t="n">
-        <v>43.62830146045274</v>
+        <v>43.62830146045275</v>
       </c>
       <c r="G29" t="n">
         <v>36.31556599526089</v>
@@ -1323,7 +1323,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>7.857313360481835</v>
+        <v>7.857313360481836</v>
       </c>
       <c r="B31" t="n">
         <v>5.486369318530889</v>
@@ -1335,7 +1335,7 @@
         <v>10.62903367950452</v>
       </c>
       <c r="E31" t="n">
-        <v>8.313535625482707</v>
+        <v>8.313535625482706</v>
       </c>
       <c r="F31" t="n">
         <v>13.35771406232347</v>
@@ -1355,22 +1355,22 @@
         <v>5.024341407244895</v>
       </c>
       <c r="B32" t="n">
-        <v>3.025819069440152</v>
+        <v>3.025819069440151</v>
       </c>
       <c r="C32" t="n">
         <v>7.55734301094601</v>
       </c>
       <c r="D32" t="n">
-        <v>6.124752204402528</v>
+        <v>6.12475220440253</v>
       </c>
       <c r="E32" t="n">
         <v>4.808642498855836</v>
       </c>
       <c r="F32" t="n">
-        <v>7.938039065371862</v>
+        <v>7.938039065371861</v>
       </c>
       <c r="G32" t="n">
-        <v>11.47480641454321</v>
+        <v>11.4748064145432</v>
       </c>
       <c r="H32" t="n">
         <v>8.868893894126614</v>
@@ -1387,7 +1387,7 @@
         <v>5.890353229602324</v>
       </c>
       <c r="C33" t="n">
-        <v>11.54809234042963</v>
+        <v>11.54809234042962</v>
       </c>
       <c r="D33" t="n">
         <v>11.63427102795936</v>
@@ -1515,13 +1515,13 @@
         <v>38.19393652672076</v>
       </c>
       <c r="G37" t="n">
-        <v>32.47514649039465</v>
+        <v>32.47514649039466</v>
       </c>
       <c r="H37" t="n">
         <v>28.55935097590144</v>
       </c>
       <c r="I37" t="n">
-        <v>36.73470938927026</v>
+        <v>36.73470938927027</v>
       </c>
     </row>
     <row r="38">
@@ -1541,7 +1541,7 @@
         <v>10.657497924537</v>
       </c>
       <c r="F38" t="n">
-        <v>16.89967845276584</v>
+        <v>16.89967845276583</v>
       </c>
       <c r="G38" t="n">
         <v>18.38678553267644</v>
@@ -1712,7 +1712,7 @@
         <v>12.38645628793101</v>
       </c>
       <c r="E44" t="n">
-        <v>9.768126205422517</v>
+        <v>9.768126205422515</v>
       </c>
       <c r="F44" t="n">
         <v>15.26847702658855</v>
@@ -1721,7 +1721,7 @@
         <v>16.03432071152025</v>
       </c>
       <c r="H44" t="n">
-        <v>13.41138283473658</v>
+        <v>13.41138283473659</v>
       </c>
       <c r="I44" t="n">
         <v>18.98953291180111</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>7.307758946777444</v>
+        <v>7.307758946777445</v>
       </c>
       <c r="B46" t="n">
         <v>5.095454105969665</v>
@@ -1770,7 +1770,7 @@
         <v>9.675006460323781</v>
       </c>
       <c r="E46" t="n">
-        <v>7.532214859131274</v>
+        <v>7.532214859131273</v>
       </c>
       <c r="F46" t="n">
         <v>12.17705926550935</v>
@@ -1802,7 +1802,7 @@
         <v>3.354051918916024</v>
       </c>
       <c r="F47" t="n">
-        <v>6.027276101106789</v>
+        <v>6.027276101106786</v>
       </c>
       <c r="G47" t="n">
         <v>10.68935815644784</v>
@@ -1837,7 +1837,7 @@
         <v>26.85307280050428</v>
       </c>
       <c r="H48" t="n">
-        <v>23.10305893093389</v>
+        <v>23.1030589309339</v>
       </c>
       <c r="I48" t="n">
         <v>31.16302749356898</v>
@@ -1932,7 +1932,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>6.765453572168152</v>
+        <v>6.765453572168153</v>
       </c>
       <c r="B52" t="n">
         <v>4.717607591918651</v>
@@ -1944,7 +1944,7 @@
         <v>8.772189370417136</v>
       </c>
       <c r="E52" t="n">
-        <v>6.881409538276392</v>
+        <v>6.881409538276391</v>
       </c>
       <c r="F52" t="n">
         <v>11.0110944054756</v>
@@ -2034,7 +2034,7 @@
         <v>24.40764707803861</v>
       </c>
       <c r="F55" t="n">
-        <v>37.01695421410173</v>
+        <v>37.01695421410174</v>
       </c>
       <c r="G55" t="n">
         <v>31.44576383047361</v>
@@ -2054,13 +2054,13 @@
         <v>5.502705191668652</v>
       </c>
       <c r="C56" t="n">
-        <v>10.77106230099928</v>
+        <v>10.77106230099927</v>
       </c>
       <c r="D56" t="n">
         <v>10.69304634109714</v>
       </c>
       <c r="E56" t="n">
-        <v>8.476679932353393</v>
+        <v>8.476679932353392</v>
       </c>
       <c r="F56" t="n">
         <v>13.37607648329893</v>
@@ -2080,25 +2080,25 @@
         <v>5.02252914747112</v>
       </c>
       <c r="B57" t="n">
-        <v>3.022551894812599</v>
+        <v>3.022551894812598</v>
       </c>
       <c r="C57" t="n">
         <v>7.557531377344731</v>
       </c>
       <c r="D57" t="n">
-        <v>6.111949672084004</v>
+        <v>6.111949672084005</v>
       </c>
       <c r="E57" t="n">
-        <v>4.776013637481697</v>
+        <v>4.776013637481698</v>
       </c>
       <c r="F57" t="n">
-        <v>7.934366581176771</v>
+        <v>7.93436658117677</v>
       </c>
       <c r="G57" t="n">
         <v>11.45821804804707</v>
       </c>
       <c r="H57" t="n">
-        <v>8.821232255475454</v>
+        <v>8.821232255475456</v>
       </c>
       <c r="I57" t="n">
         <v>14.7420352990143</v>
@@ -2179,7 +2179,7 @@
         <v>28.10831337291031</v>
       </c>
       <c r="F60" t="n">
-        <v>42.45866411622389</v>
+        <v>42.4586641162239</v>
       </c>
       <c r="G60" t="n">
         <v>35.31936006833212</v>
@@ -2193,7 +2193,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>8.961858967211942</v>
+        <v>8.961858967211944</v>
       </c>
       <c r="B61" t="n">
         <v>6.278001267535995</v>
@@ -2231,7 +2231,7 @@
         <v>13.98496995745126</v>
       </c>
       <c r="D62" t="n">
-        <v>15.24853794547323</v>
+        <v>15.24853794547324</v>
       </c>
       <c r="E62" t="n">
         <v>12.11208850447681</v>
@@ -2286,7 +2286,7 @@
         <v>19.18474193810088</v>
       </c>
       <c r="C64" t="n">
-        <v>27.7232297550214</v>
+        <v>27.72322975502141</v>
       </c>
       <c r="D64" t="n">
         <v>35.21512443908556</v>
@@ -2301,7 +2301,7 @@
         <v>35.30277170183598</v>
       </c>
       <c r="H64" t="n">
-        <v>31.33515863703638</v>
+        <v>31.33515863703637</v>
       </c>
       <c r="I64" t="n">
         <v>39.53010470137383</v>
@@ -2425,7 +2425,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>3.829159136478479</v>
+        <v>3.829159136478481</v>
       </c>
       <c r="B69" t="n">
         <v>1.71841141026777</v>
@@ -2437,10 +2437,10 @@
         <v>4.405737192931616</v>
       </c>
       <c r="E69" t="n">
-        <v>3.451938503038436</v>
+        <v>3.451938503038438</v>
       </c>
       <c r="F69" t="n">
-        <v>6.038293553692064</v>
+        <v>6.038293553692061</v>
       </c>
       <c r="G69" t="n">
         <v>10.73912325593625</v>
